--- a/002_Architect/005_Cultivation/ADMEMS Template.xlsx
+++ b/002_Architect/005_Cultivation/ADMEMS Template.xlsx
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -713,6 +713,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+      <formula1>"业务级需求,用户级需求,开发级需求"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
